--- a/ArtigoKrigingVsg/peaks/Power/content/results/metrics_1_16.xlsx
+++ b/ArtigoKrigingVsg/peaks/Power/content/results/metrics_1_16.xlsx
@@ -508,491 +508,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_16_0</t>
+          <t>model_1_16_9</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9583728433995317</v>
+        <v>0.8428490137316138</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7786992785328544</v>
+        <v>0.6410619604025487</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7331054879626102</v>
+        <v>0.7503221304890004</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9204557366986881</v>
+        <v>0.5455840666993304</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1732741506626854</v>
+        <v>0.3724781102606447</v>
       </c>
       <c r="G2" t="n">
-        <v>1.479838943446929</v>
+        <v>2.400220323545858</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9546661941247725</v>
+        <v>0.8930832620861661</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1537585521562518</v>
+        <v>0.5563868737376002</v>
       </c>
       <c r="J2" t="n">
-        <v>1.636990912209793</v>
+        <v>1.365325255995473</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4162621177367518</v>
+        <v>0.6103098477500135</v>
       </c>
       <c r="L2" t="n">
-        <v>3.664138022429974</v>
+        <v>0.7860071676345379</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4228178299816479</v>
+        <v>0.6199216177660536</v>
       </c>
       <c r="N2" t="n">
-        <v>133.5057605057253</v>
+        <v>35.97515401458034</v>
       </c>
       <c r="O2" t="n">
-        <v>274.8409330489417</v>
+        <v>72.93973760280616</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_16_1</t>
+          <t>model_1_16_7</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9590669213081547</v>
+        <v>0.8428831464844517</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7784743497376442</v>
+        <v>0.6409737498638461</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7346236097372287</v>
+        <v>0.7499619121674954</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9202065406475898</v>
+        <v>0.5492024420312973</v>
       </c>
       <c r="F3" t="n">
-        <v>0.17038503283836</v>
+        <v>0.372397209061251</v>
       </c>
       <c r="G3" t="n">
-        <v>1.4813430433362</v>
+        <v>2.400810187824334</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9492359605627201</v>
+        <v>0.8943717421355308</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1542402465290413</v>
+        <v>0.5519565349412926</v>
       </c>
       <c r="J3" t="n">
-        <v>1.623346621909254</v>
+        <v>1.370718125199925</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4127772193791223</v>
+        <v>0.6102435653583338</v>
       </c>
       <c r="L3" t="n">
-        <v>3.619717036278097</v>
+        <v>0.7860536462767003</v>
       </c>
       <c r="M3" t="n">
-        <v>0.419278047958506</v>
+        <v>0.6198542914929629</v>
       </c>
       <c r="N3" t="n">
-        <v>133.5393890078006</v>
+        <v>35.97558845614453</v>
       </c>
       <c r="O3" t="n">
-        <v>274.8745615510171</v>
+        <v>72.94017204437034</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_16_2</t>
+          <t>model_1_16_8</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.959680734539622</v>
+        <v>0.8428647867086388</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7782263816307035</v>
+        <v>0.6409666897614279</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7360994600048265</v>
+        <v>0.7501338666601813</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9191804943889488</v>
+        <v>0.5474855044334486</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1678300188755085</v>
+        <v>0.3724407252666656</v>
       </c>
       <c r="G4" t="n">
-        <v>1.483001207209101</v>
+        <v>2.400857398761713</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9439569297302381</v>
+        <v>0.8937566708856878</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1562235873838855</v>
+        <v>0.5540587533550063</v>
       </c>
       <c r="J4" t="n">
-        <v>1.610003230285647</v>
+        <v>1.368183590330344</v>
       </c>
       <c r="K4" t="n">
-        <v>0.409670622421853</v>
+        <v>0.610279219101114</v>
       </c>
       <c r="L4" t="n">
-        <v>3.580432989464192</v>
+        <v>0.7860286457309125</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4161225252046174</v>
+        <v>0.6198905067465514</v>
       </c>
       <c r="N4" t="n">
-        <v>133.569607208388</v>
+        <v>35.97535476125087</v>
       </c>
       <c r="O4" t="n">
-        <v>274.9047797516045</v>
+        <v>72.93993834947669</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_16_3</t>
+          <t>model_1_16_6</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9602216125077667</v>
+        <v>0.8429037172452412</v>
       </c>
       <c r="C5" t="n">
-        <v>0.777962658137215</v>
+        <v>0.6409199927296678</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7374971538322534</v>
+        <v>0.7497855878725834</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9176045142331594</v>
+        <v>0.5511301828131516</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1655785998933773</v>
+        <v>0.3723484523955283</v>
       </c>
       <c r="G5" t="n">
-        <v>1.484764727424393</v>
+        <v>2.401169662028113</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9389574599524766</v>
+        <v>0.895002443914561</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1592699469442636</v>
+        <v>0.5495962091067608</v>
       </c>
       <c r="J5" t="n">
-        <v>1.596945936882884</v>
+        <v>1.37332634791331</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4069135041914648</v>
+        <v>0.6102036155215145</v>
       </c>
       <c r="L5" t="n">
-        <v>3.54581679950293</v>
+        <v>0.7860816575254348</v>
       </c>
       <c r="M5" t="n">
-        <v>0.4133219851182077</v>
+        <v>0.619813712486149</v>
       </c>
       <c r="N5" t="n">
-        <v>133.5966185461572</v>
+        <v>35.97585032630136</v>
       </c>
       <c r="O5" t="n">
-        <v>274.9317910893736</v>
+        <v>72.94043391452719</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_16_4</t>
+          <t>model_1_16_5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9606710488785739</v>
+        <v>0.8431060165999478</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7776760924424952</v>
+        <v>0.6403154157693352</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7389110759026949</v>
+        <v>0.749072176906351</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9151490103676763</v>
+        <v>0.5606223919043252</v>
       </c>
       <c r="F6" t="n">
-        <v>0.163707809001365</v>
+        <v>0.371868963954906</v>
       </c>
       <c r="G6" t="n">
-        <v>1.486680993544498</v>
+        <v>2.405212470945679</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9338999426904196</v>
+        <v>0.8975542735748301</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1640164202096026</v>
+        <v>0.537973948190995</v>
       </c>
       <c r="J6" t="n">
-        <v>1.584269681908276</v>
+        <v>1.377806259690141</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4046082166755453</v>
+        <v>0.6098105967879749</v>
       </c>
       <c r="L6" t="n">
-        <v>3.51705287177127</v>
+        <v>0.7863571289871629</v>
       </c>
       <c r="M6" t="n">
-        <v>0.4109803916283545</v>
+        <v>0.6194145041004306</v>
       </c>
       <c r="N6" t="n">
-        <v>133.619344185238</v>
+        <v>35.97842746839148</v>
       </c>
       <c r="O6" t="n">
-        <v>274.9545167284545</v>
+        <v>72.94301105661729</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_16_5</t>
+          <t>model_1_16_4</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9610387975906216</v>
+        <v>0.8435291362421128</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7773646689619466</v>
+        <v>0.637939499530519</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7403133098983148</v>
+        <v>0.7473988256338275</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9119540582259341</v>
+        <v>0.5833107778024833</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1621770451697405</v>
+        <v>0.3708660888952571</v>
       </c>
       <c r="G7" t="n">
-        <v>1.488763483792901</v>
+        <v>2.42110023377473</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9288842329942859</v>
+        <v>0.9035397540501646</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1701922422630664</v>
+        <v>0.510194288247434</v>
       </c>
       <c r="J7" t="n">
-        <v>1.571824212994523</v>
+        <v>1.383961460524813</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4027121120226464</v>
+        <v>0.6089877575906244</v>
       </c>
       <c r="L7" t="n">
-        <v>3.493516954200217</v>
+        <v>0.7869332919041536</v>
       </c>
       <c r="M7" t="n">
-        <v>0.4090544252225817</v>
+        <v>0.6185787060082594</v>
       </c>
       <c r="N7" t="n">
-        <v>133.6381333381617</v>
+        <v>35.98382845581099</v>
       </c>
       <c r="O7" t="n">
-        <v>274.9733058813781</v>
+        <v>72.94841204403681</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_16_6</t>
+          <t>model_1_16_3</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9613134125307369</v>
+        <v>0.8431433226357476</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7770449324538141</v>
+        <v>0.6307584145195284</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7417074556882244</v>
+        <v>0.7425921977541956</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9078364610139813</v>
+        <v>0.627975220384219</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1610339531501616</v>
+        <v>0.3717805414636063</v>
       </c>
       <c r="G8" t="n">
-        <v>1.490901563295034</v>
+        <v>2.46912018230908</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9238974543409968</v>
+        <v>0.9207327832713101</v>
       </c>
       <c r="I8" t="n">
-        <v>0.178151531335545</v>
+        <v>0.4555071442584891</v>
       </c>
       <c r="J8" t="n">
-        <v>1.559610994453543</v>
+        <v>1.421404889895666</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4012903601510527</v>
+        <v>0.6097380925148159</v>
       </c>
       <c r="L8" t="n">
-        <v>3.47594159803284</v>
+        <v>0.7864079286954861</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4076102821802409</v>
+        <v>0.6193408579574472</v>
       </c>
       <c r="N8" t="n">
-        <v>133.6522800942004</v>
+        <v>35.97890308219111</v>
       </c>
       <c r="O8" t="n">
-        <v>274.9874526374168</v>
+        <v>72.94348667041693</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_16_7</t>
+          <t>model_1_16_2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9614754953870592</v>
+        <v>0.8430597016067487</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7766832766034375</v>
+        <v>0.6301846558447952</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7430509075200984</v>
+        <v>0.742170924026475</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9027291458276352</v>
+        <v>0.6309220727643926</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1603592789336211</v>
+        <v>0.3719787394106838</v>
       </c>
       <c r="G9" t="n">
-        <v>1.493319957631774</v>
+        <v>2.472956909208937</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9190920050361966</v>
+        <v>0.9222396549685128</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1880239389217909</v>
+        <v>0.4518990181717524</v>
       </c>
       <c r="J9" t="n">
-        <v>1.548003765443315</v>
+        <v>1.424244127491229</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4004488468376718</v>
+        <v>0.6099005979753453</v>
       </c>
       <c r="L9" t="n">
-        <v>3.465568295228209</v>
+        <v>0.7862940617623813</v>
       </c>
       <c r="M9" t="n">
-        <v>0.4067555158733789</v>
+        <v>0.6195059227165339</v>
       </c>
       <c r="N9" t="n">
-        <v>133.6606769755311</v>
+        <v>35.9778371569281</v>
       </c>
       <c r="O9" t="n">
-        <v>274.9958495187475</v>
+        <v>72.94242074515392</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_16_8</t>
+          <t>model_1_16_1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9615345523348992</v>
+        <v>0.8443722591044274</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7763105652432238</v>
+        <v>0.6277278034698153</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7444087232947323</v>
+        <v>0.7390962136221986</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8966666976581321</v>
+        <v>0.6566948663106273</v>
       </c>
       <c r="F10" t="n">
-        <v>0.160113452811604</v>
+        <v>0.3688677252964687</v>
       </c>
       <c r="G10" t="n">
-        <v>1.495812280213701</v>
+        <v>2.489385892353194</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9142351767410132</v>
+        <v>0.933237715802657</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1997426124549675</v>
+        <v>0.4203428094699194</v>
       </c>
       <c r="J10" t="n">
-        <v>1.536608717517265</v>
+        <v>1.302052368053713</v>
       </c>
       <c r="K10" t="n">
-        <v>0.4001417908836866</v>
+        <v>0.6073448158142692</v>
       </c>
       <c r="L10" t="n">
-        <v>3.461788650566454</v>
+        <v>0.7880813740996457</v>
       </c>
       <c r="M10" t="n">
-        <v>0.4064436240950619</v>
+        <v>0.6169098895412659</v>
       </c>
       <c r="N10" t="n">
-        <v>133.6637452699086</v>
+        <v>35.99463433447577</v>
       </c>
       <c r="O10" t="n">
-        <v>274.998917813125</v>
+        <v>72.95921792270158</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_16_9</t>
+          <t>model_1_16_0</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9615014877376646</v>
+        <v>0.8442508926733009</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7759172858892587</v>
+        <v>0.6270846916568132</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7457396067688118</v>
+        <v>0.7385635306868994</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8897376465944407</v>
+        <v>0.6596238081815757</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1602510850803125</v>
+        <v>0.3691553871176795</v>
       </c>
       <c r="G11" t="n">
-        <v>1.498442141064551</v>
+        <v>2.493686384007995</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9094746837232883</v>
+        <v>0.9351430917754906</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2131364238393814</v>
+        <v>0.4167566130108751</v>
       </c>
       <c r="J11" t="n">
-        <v>1.525363439488446</v>
+        <v>1.304111350145854</v>
       </c>
       <c r="K11" t="n">
-        <v>0.4003137333146498</v>
+        <v>0.6075815888567391</v>
       </c>
       <c r="L11" t="n">
-        <v>3.463904784789463</v>
+        <v>0.7879161091721544</v>
       </c>
       <c r="M11" t="n">
-        <v>0.4066182744474333</v>
+        <v>0.6171503915224683</v>
       </c>
       <c r="N11" t="n">
-        <v>133.6620268240646</v>
+        <v>35.99307524056155</v>
       </c>
       <c r="O11" t="n">
-        <v>274.997199367281</v>
+        <v>72.95765882878737</v>
       </c>
     </row>
   </sheetData>
